--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>790.745816029059</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N2">
-        <v>790.745816029059</v>
+        <v>2463.688598</v>
       </c>
       <c r="O2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q2">
-        <v>153914.3028292671</v>
+        <v>160497.3131749982</v>
       </c>
       <c r="R2">
-        <v>153914.3028292671</v>
+        <v>1444475.818574984</v>
       </c>
       <c r="S2">
-        <v>0.2616110511756622</v>
+        <v>0.258381136632636</v>
       </c>
       <c r="T2">
-        <v>0.2616110511756622</v>
+        <v>0.2583811366326359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.7719676100087</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N3">
-        <v>74.7719676100087</v>
+        <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q3">
-        <v>14553.95024871571</v>
+        <v>14656.57569737837</v>
       </c>
       <c r="R3">
-        <v>14553.95024871571</v>
+        <v>131909.1812764053</v>
       </c>
       <c r="S3">
-        <v>0.02473762446592332</v>
+        <v>0.02359530270579518</v>
       </c>
       <c r="T3">
-        <v>0.02473762446592332</v>
+        <v>0.02359530270579518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84345566615913</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N4">
-        <v>3.84345566615913</v>
+        <v>12.20766</v>
       </c>
       <c r="O4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q4">
-        <v>748.1074035684049</v>
+        <v>795.26959362658</v>
       </c>
       <c r="R4">
-        <v>748.1074035684049</v>
+        <v>7157.42634263922</v>
       </c>
       <c r="S4">
-        <v>0.001271572301223526</v>
+        <v>0.001280287236376115</v>
       </c>
       <c r="T4">
-        <v>0.001271572301223526</v>
+        <v>0.001280287236376115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>71.404267207475</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N5">
-        <v>71.404267207475</v>
+        <v>2.375885</v>
       </c>
       <c r="O5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q5">
-        <v>13898.44597782777</v>
+        <v>154.7773363980884</v>
       </c>
       <c r="R5">
-        <v>13898.44597782777</v>
+        <v>1392.996027582795</v>
       </c>
       <c r="S5">
-        <v>0.02362345146052462</v>
+        <v>0.0002491726703231795</v>
       </c>
       <c r="T5">
-        <v>0.02362345146052462</v>
+        <v>0.0002491726703231795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>790.745816029059</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N6">
-        <v>790.745816029059</v>
+        <v>248.563462</v>
       </c>
       <c r="O6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q6">
-        <v>63075.68652239074</v>
+        <v>16192.69896238557</v>
       </c>
       <c r="R6">
-        <v>63075.68652239074</v>
+        <v>145734.2906614701</v>
       </c>
       <c r="S6">
-        <v>0.1072109371996027</v>
+        <v>0.02606827416786341</v>
       </c>
       <c r="T6">
-        <v>0.1072109371996027</v>
+        <v>0.02606827416786341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.7719676100087</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N7">
-        <v>74.7719676100087</v>
+        <v>2463.688598</v>
       </c>
       <c r="O7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q7">
-        <v>5964.360599864298</v>
+        <v>65556.49740151058</v>
       </c>
       <c r="R7">
-        <v>5964.360599864298</v>
+        <v>590008.4766135952</v>
       </c>
       <c r="S7">
-        <v>0.01013773650296846</v>
+        <v>0.105537980525492</v>
       </c>
       <c r="T7">
-        <v>0.01013773650296846</v>
+        <v>0.105537980525492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.84345566615913</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N8">
-        <v>3.84345566615913</v>
+        <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q8">
-        <v>306.5822162408391</v>
+        <v>5986.603436610701</v>
       </c>
       <c r="R8">
-        <v>306.5822162408391</v>
+        <v>53879.43092949631</v>
       </c>
       <c r="S8">
-        <v>0.0005211035906877324</v>
+        <v>0.009637702774710858</v>
       </c>
       <c r="T8">
-        <v>0.0005211035906877324</v>
+        <v>0.009637702774710858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.404267207475</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N9">
-        <v>71.404267207475</v>
+        <v>12.20766</v>
       </c>
       <c r="O9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q9">
-        <v>5695.728113184484</v>
+        <v>324.8346530962534</v>
       </c>
       <c r="R9">
-        <v>5695.728113184484</v>
+        <v>2923.51187786628</v>
       </c>
       <c r="S9">
-        <v>0.009681136785278835</v>
+        <v>0.0005229442488745194</v>
       </c>
       <c r="T9">
-        <v>0.009681136785278835</v>
+        <v>0.0005229442488745193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>790.745816029059</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N10">
-        <v>790.745816029059</v>
+        <v>2.375885</v>
       </c>
       <c r="O10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q10">
-        <v>128273.967278751</v>
+        <v>63.22012406731445</v>
       </c>
       <c r="R10">
-        <v>128273.967278751</v>
+        <v>568.98111660583</v>
       </c>
       <c r="S10">
-        <v>0.2180296879588338</v>
+        <v>0.0001017767038676731</v>
       </c>
       <c r="T10">
-        <v>0.2180296879588338</v>
+        <v>0.000101776703867673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.7719676100087</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N11">
-        <v>74.7719676100087</v>
+        <v>248.563462</v>
       </c>
       <c r="O11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q11">
-        <v>12129.43114228456</v>
+        <v>6614.046094925134</v>
       </c>
       <c r="R11">
-        <v>12129.43114228456</v>
+        <v>59526.4148543262</v>
       </c>
       <c r="S11">
-        <v>0.02061662349090334</v>
+        <v>0.01064780907505944</v>
       </c>
       <c r="T11">
-        <v>0.02061662349090334</v>
+        <v>0.01064780907505944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84345566615913</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N12">
-        <v>3.84345566615913</v>
+        <v>2463.688598</v>
       </c>
       <c r="O12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q12">
-        <v>623.4813973901681</v>
+        <v>133459.372678482</v>
       </c>
       <c r="R12">
-        <v>623.4813973901681</v>
+        <v>1201134.354106338</v>
       </c>
       <c r="S12">
-        <v>0.001059743121733434</v>
+        <v>0.2148533438023712</v>
       </c>
       <c r="T12">
-        <v>0.001059743121733434</v>
+        <v>0.2148533438023712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.404267207475</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N13">
-        <v>71.404267207475</v>
+        <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q13">
-        <v>11583.12627100672</v>
+        <v>12187.47753150244</v>
       </c>
       <c r="R13">
-        <v>11583.12627100672</v>
+        <v>109687.297783522</v>
       </c>
       <c r="S13">
-        <v>0.01968805877007998</v>
+        <v>0.01962035522576497</v>
       </c>
       <c r="T13">
-        <v>0.01968805877007998</v>
+        <v>0.01962035522576498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>790.745816029059</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N14">
-        <v>790.745816029059</v>
+        <v>12.20766</v>
       </c>
       <c r="O14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q14">
-        <v>125437.8959043119</v>
+        <v>661.2956876103533</v>
       </c>
       <c r="R14">
-        <v>125437.8959043119</v>
+        <v>5951.66118849318</v>
       </c>
       <c r="S14">
-        <v>0.2132091638110601</v>
+        <v>0.001064605556534891</v>
       </c>
       <c r="T14">
-        <v>0.2132091638110601</v>
+        <v>0.001064605556534891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>74.7719676100087</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N15">
-        <v>74.7719676100087</v>
+        <v>2.375885</v>
       </c>
       <c r="O15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q15">
-        <v>11861.25566458915</v>
+        <v>128.7030032584561</v>
       </c>
       <c r="R15">
-        <v>11861.25566458915</v>
+        <v>1158.327029326105</v>
       </c>
       <c r="S15">
-        <v>0.02016080056002695</v>
+        <v>0.0002071961680361264</v>
       </c>
       <c r="T15">
-        <v>0.02016080056002695</v>
+        <v>0.0002071961680361264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H16">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I16">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J16">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.84345566615913</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N16">
-        <v>3.84345566615913</v>
+        <v>248.563462</v>
       </c>
       <c r="O16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q16">
-        <v>609.6965446944449</v>
+        <v>13464.82008166184</v>
       </c>
       <c r="R16">
-        <v>609.6965446944449</v>
+        <v>121183.3807349565</v>
       </c>
       <c r="S16">
-        <v>0.001036312746922653</v>
+        <v>0.02167672123869351</v>
       </c>
       <c r="T16">
-        <v>0.001036312746922653</v>
+        <v>0.02167672123869351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H17">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.404267207475</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N17">
-        <v>71.404267207475</v>
+        <v>2463.688598</v>
       </c>
       <c r="O17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q17">
-        <v>11327.02931274918</v>
+        <v>131225.1221984934</v>
       </c>
       <c r="R17">
-        <v>11327.02931274918</v>
+        <v>1181026.09978644</v>
       </c>
       <c r="S17">
-        <v>0.0192527659271077</v>
+        <v>0.2112564725082579</v>
       </c>
       <c r="T17">
-        <v>0.0192527659271077</v>
+        <v>0.2112564725082579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H18">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I18">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J18">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>790.745816029059</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N18">
-        <v>790.745816029059</v>
+        <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q18">
-        <v>23811.94203952072</v>
+        <v>11983.44631977025</v>
       </c>
       <c r="R18">
-        <v>23811.94203952072</v>
+        <v>107851.0168779322</v>
       </c>
       <c r="S18">
-        <v>0.0404736081896374</v>
+        <v>0.01929188981190214</v>
       </c>
       <c r="T18">
-        <v>0.0404736081896374</v>
+        <v>0.01929188981190214</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H19">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I19">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J19">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.7719676100087</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N19">
-        <v>74.7719676100087</v>
+        <v>12.20766</v>
       </c>
       <c r="O19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q19">
-        <v>2251.62842827488</v>
+        <v>650.2249012144268</v>
       </c>
       <c r="R19">
-        <v>2251.62842827488</v>
+        <v>5852.024110929841</v>
       </c>
       <c r="S19">
-        <v>0.003827135419840829</v>
+        <v>0.001046782938100914</v>
       </c>
       <c r="T19">
-        <v>0.003827135419840829</v>
+        <v>0.001046782938100913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H20">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I20">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J20">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>3.84345566615913</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N20">
-        <v>3.84345566615913</v>
+        <v>2.375885</v>
       </c>
       <c r="O20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q20">
-        <v>115.7390171390871</v>
+        <v>126.5483794127489</v>
       </c>
       <c r="R20">
-        <v>115.7390171390871</v>
+        <v>1138.93541471474</v>
       </c>
       <c r="S20">
-        <v>0.0001967237961593588</v>
+        <v>0.0002037274859301364</v>
       </c>
       <c r="T20">
-        <v>0.0001967237961593588</v>
+        <v>0.0002037274859301364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H21">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I21">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J21">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.404267207475</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N21">
-        <v>71.404267207475</v>
+        <v>248.563462</v>
       </c>
       <c r="O21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q21">
-        <v>2150.215957710943</v>
+        <v>13239.40481013281</v>
       </c>
       <c r="R21">
-        <v>2150.215957710943</v>
+        <v>119154.6432911953</v>
       </c>
       <c r="S21">
-        <v>0.003654762725823028</v>
+        <v>0.02131383009167152</v>
       </c>
       <c r="T21">
-        <v>0.003654762725823028</v>
+        <v>0.02131383009167152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H22">
+        <v>101.215736</v>
+      </c>
+      <c r="I22">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J22">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>821.2295326666666</v>
+      </c>
+      <c r="N22">
+        <v>2463.688598</v>
+      </c>
+      <c r="O22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="P22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="Q22">
+        <v>27707.11719126423</v>
+      </c>
+      <c r="R22">
+        <v>249364.0547213781</v>
+      </c>
+      <c r="S22">
+        <v>0.04460508584892441</v>
+      </c>
+      <c r="T22">
+        <v>0.0446050858489244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H23">
+        <v>101.215736</v>
+      </c>
+      <c r="I23">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J23">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N23">
+        <v>224.983445</v>
+      </c>
+      <c r="O23">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P23">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q23">
+        <v>2530.207219276724</v>
+      </c>
+      <c r="R23">
+        <v>22771.86497349052</v>
+      </c>
+      <c r="S23">
+        <v>0.004073325617108596</v>
+      </c>
+      <c r="T23">
+        <v>0.004073325617108597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H24">
+        <v>101.215736</v>
+      </c>
+      <c r="I24">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J24">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N24">
+        <v>12.20766</v>
+      </c>
+      <c r="O24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q24">
+        <v>137.2896990819733</v>
+      </c>
+      <c r="R24">
+        <v>1235.60729173776</v>
+      </c>
+      <c r="S24">
+        <v>0.0002210197030406034</v>
+      </c>
+      <c r="T24">
+        <v>0.0002210197030406034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H25">
+        <v>101.215736</v>
+      </c>
+      <c r="I25">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J25">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N25">
+        <v>2.375885</v>
+      </c>
+      <c r="O25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q25">
+        <v>26.71966099181778</v>
+      </c>
+      <c r="R25">
+        <v>240.47694892636</v>
+      </c>
+      <c r="S25">
+        <v>4.301540157234261E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.301540157234261E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H26">
+        <v>101.215736</v>
+      </c>
+      <c r="I26">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J26">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N26">
+        <v>248.563462</v>
+      </c>
+      <c r="O26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q26">
+        <v>2795.392638782003</v>
+      </c>
+      <c r="R26">
+        <v>25158.53374903803</v>
+      </c>
+      <c r="S26">
+        <v>0.004500241861092487</v>
+      </c>
+      <c r="T26">
+        <v>0.004500241861092487</v>
       </c>
     </row>
   </sheetData>
